--- a/ConceptMap-R5-Group-elements-for-R4-Group.xlsx
+++ b/ConceptMap-R5-Group-elements-for-R4-Group.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:32.9447319-06:00</t>
+    <t>2026-02-09T22:05:43.9084614-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -174,9 +174,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/Group#Group.active</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.active</t>
-  </si>
-  <si>
     <t>Group.type</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>membership</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.membership</t>
-  </si>
-  <si>
     <t>Group.code</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.description</t>
-  </si>
-  <si>
     <t>Group.quantity</t>
   </si>
   <si>
@@ -238,9 +229,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Group#Group.managingEntity</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.managingEntity</t>
   </si>
   <si>
     <t>Group.characteristic</t>
@@ -572,7 +560,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -716,66 +704,66 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -820,133 +808,107 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="E28" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-Group-elements-for-R4-Group.xlsx
+++ b/ConceptMap-R5-Group-elements-for-R4-Group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.9084614-06:00</t>
+    <t>2026-02-17T14:42:27.2931186-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
